--- a/Assets/StreamingAssets/GameData/MainDirectorScript.xlsx
+++ b/Assets/StreamingAssets/GameData/MainDirectorScript.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>事件</t>
   </si>
@@ -35,7 +35,7 @@
     <t>注释</t>
   </si>
   <si>
-    <t>If-{Bigger-{float-5}-{Inventory-Player-1}}-{Book-"testB1"}-{Book-"testB2"}</t>
+    <t>Dialog-test.xlsx</t>
   </si>
 </sst>
 </file>
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="60" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="60" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6083333333333" customWidth="1"/>
@@ -994,9 +994,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1"/>
+    <row r="2" ht="21" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
